--- a/2021-01-15/Riddler Classic/riddler.xlsx
+++ b/2021-01-15/Riddler Classic/riddler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/GitHub/fivethirtyeight-riddler/2021-01-15/Riddler Classic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A32684-E677-D549-A8F8-F9A8EAB17238}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB6815-F2F4-544F-9B5E-ED02C8A72D80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{85B252CD-4CBD-0546-B5CB-0DFF12243518}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16480" xr2:uid="{85B252CD-4CBD-0546-B5CB-0DFF12243518}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E963DE5-A5F2-374A-8026-70640477C685}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:R8"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,10 +529,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
         <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -553,13 +553,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
@@ -652,10 +652,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
         <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>7</v>
@@ -679,13 +679,13 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
@@ -734,7 +734,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f>PRODUCT(A1:A8)</f>
-        <v>5445468</v>
+        <v>8890560</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" ref="B9:C9" si="1">PRODUCT(B1:B8)</f>
@@ -742,7 +742,7 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>90720</v>
+        <v>55566</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>156800</v>
       </c>
       <c r="C10" s="1">
-        <v>55166</v>
+        <v>55566</v>
       </c>
     </row>
   </sheetData>

--- a/2021-01-15/Riddler Classic/riddler.xlsx
+++ b/2021-01-15/Riddler Classic/riddler.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Documents/GitHub/fivethirtyeight-riddler/2021-01-15/Riddler Classic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB6815-F2F4-544F-9B5E-ED02C8A72D80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C8CB7D-FF5C-E042-B6F4-6970F10DA3F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="16480" xr2:uid="{85B252CD-4CBD-0546-B5CB-0DFF12243518}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{85B252CD-4CBD-0546-B5CB-0DFF12243518}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,12 +68,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,17 +391,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E963DE5-A5F2-374A-8026-70640477C685}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="19" width="4.1640625" bestFit="1" customWidth="1"/>
@@ -756,6 +758,52 @@
         <v>55566</v>
       </c>
     </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>57778899</v>
+      </c>
+      <c r="B12" s="1">
+        <v>22455778</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11277799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>24445577</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12337779</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>14455778</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11367779</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>12557788</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13336777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
+        <v>23333777</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
